--- a/Code/Results/Cases/Case_5_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_99/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.5644640259884</v>
+        <v>2.345887016753807</v>
       </c>
       <c r="C2">
-        <v>0.6916348405088968</v>
+        <v>0.3135156155690311</v>
       </c>
       <c r="D2">
-        <v>0.02176494598585066</v>
+        <v>0.009519520851597463</v>
       </c>
       <c r="E2">
-        <v>0.02379684873168841</v>
+        <v>0.04641141514002722</v>
       </c>
       <c r="F2">
-        <v>3.170720908663597</v>
+        <v>4.387006073177275</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.866541388117966</v>
+        <v>2.666097054353415</v>
       </c>
       <c r="J2">
-        <v>0.06265769147628708</v>
+        <v>0.1207758743605365</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1997852323902762</v>
+        <v>0.376486380045769</v>
       </c>
       <c r="M2">
-        <v>0.4561108599900763</v>
+        <v>0.5208874751192241</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243588273982937</v>
+        <v>2.281277830105239</v>
       </c>
       <c r="C3">
-        <v>0.5965733304901164</v>
+        <v>0.2900822958447122</v>
       </c>
       <c r="D3">
-        <v>0.01867046020236174</v>
+        <v>0.008511352982370823</v>
       </c>
       <c r="E3">
-        <v>0.02282947883620512</v>
+        <v>0.0460698980494314</v>
       </c>
       <c r="F3">
-        <v>2.975437059238487</v>
+        <v>4.356787725242654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.775763007991486</v>
+        <v>2.653196933476536</v>
       </c>
       <c r="J3">
-        <v>0.06309339975698181</v>
+        <v>0.1208226258829952</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1847220013295612</v>
+        <v>0.3750905753882847</v>
       </c>
       <c r="M3">
-        <v>0.4033911643097312</v>
+        <v>0.5113213601050646</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050204833925648</v>
+        <v>2.243105082430418</v>
       </c>
       <c r="C4">
-        <v>0.5392418205339595</v>
+        <v>0.2758938340196266</v>
       </c>
       <c r="D4">
-        <v>0.01683715682017706</v>
+        <v>0.007889797134531307</v>
       </c>
       <c r="E4">
-        <v>0.02224229576781589</v>
+        <v>0.04585534650250533</v>
       </c>
       <c r="F4">
-        <v>2.860947372451093</v>
+        <v>4.340096582800356</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.723079962235389</v>
+        <v>2.646304947745122</v>
       </c>
       <c r="J4">
-        <v>0.06336740451295331</v>
+        <v>0.120852234565715</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1757727149689075</v>
+        <v>0.3744008067487812</v>
       </c>
       <c r="M4">
-        <v>0.3716985899991982</v>
+        <v>0.5057553019091898</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.972208505598189</v>
+        <v>2.227925915643539</v>
       </c>
       <c r="C5">
-        <v>0.5161033025997881</v>
+        <v>0.2701617096825828</v>
       </c>
       <c r="D5">
-        <v>0.01610448623074845</v>
+        <v>0.007635807815915996</v>
       </c>
       <c r="E5">
-        <v>0.02200424540666646</v>
+        <v>0.04576668139388218</v>
       </c>
       <c r="F5">
-        <v>2.815539497887244</v>
+        <v>4.333761774287098</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.702318046643242</v>
+        <v>2.643754160013529</v>
       </c>
       <c r="J5">
-        <v>0.06348067906354249</v>
+        <v>0.1208645252952696</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1721953065552171</v>
+        <v>0.374161819900003</v>
       </c>
       <c r="M5">
-        <v>0.3589361587012405</v>
+        <v>0.5035644518145546</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.959303229297518</v>
+        <v>2.225428168320605</v>
       </c>
       <c r="C6">
-        <v>0.5122737330042355</v>
+        <v>0.2692128896897543</v>
       </c>
       <c r="D6">
-        <v>0.01598363242851875</v>
+        <v>0.00759358896642226</v>
       </c>
       <c r="E6">
-        <v>0.02196477867890234</v>
+        <v>0.04575188376765116</v>
       </c>
       <c r="F6">
-        <v>2.808071744095471</v>
+        <v>4.332738043959196</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.698911536075556</v>
+        <v>2.643346144090089</v>
       </c>
       <c r="J6">
-        <v>0.06349958544067635</v>
+        <v>0.1208665796854933</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1716053166558567</v>
+        <v>0.3741246802495013</v>
       </c>
       <c r="M6">
-        <v>0.3568256878307352</v>
+        <v>0.5032053361788869</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.049149805134959</v>
+        <v>2.242898846328217</v>
       </c>
       <c r="C7">
-        <v>0.5389289027535824</v>
+        <v>0.2758163275451579</v>
       </c>
       <c r="D7">
-        <v>0.01682722036930784</v>
+        <v>0.007886374661932649</v>
       </c>
       <c r="E7">
-        <v>0.02223908094579485</v>
+        <v>0.04585415574393004</v>
       </c>
       <c r="F7">
-        <v>2.860330078630767</v>
+        <v>4.340009260652707</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.722797175343047</v>
+        <v>2.646269504556912</v>
       </c>
       <c r="J7">
-        <v>0.06336892564820307</v>
+        <v>0.1208523994145767</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1757241947537977</v>
+        <v>0.3743974131746768</v>
       </c>
       <c r="M7">
-        <v>0.3715258761776568</v>
+        <v>0.505725442065291</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.453005216276892</v>
+        <v>2.323298893214599</v>
       </c>
       <c r="C8">
-        <v>0.6586197020663178</v>
+        <v>0.3053940953905396</v>
       </c>
       <c r="D8">
-        <v>0.02068262702925239</v>
+        <v>0.009172393257607325</v>
       </c>
       <c r="E8">
-        <v>0.023461590363552</v>
+        <v>0.04629466124676007</v>
       </c>
       <c r="F8">
-        <v>3.102191341496621</v>
+        <v>4.376199182011078</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.834568305248538</v>
+        <v>2.661435006594388</v>
       </c>
       <c r="J8">
-        <v>0.06280657007272716</v>
+        <v>0.1207918055790747</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1945255737487983</v>
+        <v>0.3759704138315385</v>
       </c>
       <c r="M8">
-        <v>0.4377812606248952</v>
+        <v>0.5175252480543193</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.279104739247884</v>
+        <v>2.492860760771862</v>
       </c>
       <c r="C9">
-        <v>0.9033770518499296</v>
+        <v>0.3650031772401405</v>
       </c>
       <c r="D9">
-        <v>0.02889179590102486</v>
+        <v>0.01167704309545314</v>
       </c>
       <c r="E9">
-        <v>0.02593695532665485</v>
+        <v>0.04712050048044603</v>
       </c>
       <c r="F9">
-        <v>3.625150250646072</v>
+        <v>4.462026099751483</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.081057190501213</v>
+        <v>2.699382968110882</v>
       </c>
       <c r="J9">
-        <v>0.06175596489328727</v>
+        <v>0.120680238682795</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2340651929801396</v>
+        <v>0.380381118419379</v>
       </c>
       <c r="M9">
-        <v>0.5739799747415901</v>
+        <v>0.5431064292208845</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.915175212475731</v>
+        <v>2.624731774308827</v>
       </c>
       <c r="C10">
-        <v>1.092187040307977</v>
+        <v>0.4098143013108029</v>
       </c>
       <c r="D10">
-        <v>0.03550754515646304</v>
+        <v>0.01351084156436144</v>
       </c>
       <c r="E10">
-        <v>0.02784183081971747</v>
+        <v>0.04770489773864117</v>
       </c>
       <c r="F10">
-        <v>4.047944960812515</v>
+        <v>4.534258423257029</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.283581338270963</v>
+        <v>2.732336418376107</v>
       </c>
       <c r="J10">
-        <v>0.06101730540325723</v>
+        <v>0.1206028164658175</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2652020357408986</v>
+        <v>0.3844296206008551</v>
       </c>
       <c r="M10">
-        <v>0.67927675844156</v>
+        <v>0.5633946753979444</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.213020979690896</v>
+        <v>2.686317745346685</v>
       </c>
       <c r="C11">
-        <v>1.180777487801492</v>
+        <v>0.4304290492365794</v>
       </c>
       <c r="D11">
-        <v>0.03869391110880116</v>
+        <v>0.01434460217723199</v>
       </c>
       <c r="E11">
-        <v>0.02873741681648756</v>
+        <v>0.04796608113073919</v>
       </c>
       <c r="F11">
-        <v>4.250958555673407</v>
+        <v>4.569137325633534</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.381600477330196</v>
+        <v>2.748444690373006</v>
       </c>
       <c r="J11">
-        <v>0.06068894550599224</v>
+        <v>0.1205686085019502</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2799386597170894</v>
+        <v>0.3864468418668565</v>
       </c>
       <c r="M11">
-        <v>0.728679141949172</v>
+        <v>0.5729501065158047</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.327236420971474</v>
+        <v>2.709868976687403</v>
       </c>
       <c r="C12">
-        <v>1.214784748471629</v>
+        <v>0.4382689693157431</v>
       </c>
       <c r="D12">
-        <v>0.03993082940178994</v>
+        <v>0.01466033250911636</v>
       </c>
       <c r="E12">
-        <v>0.02908174803948516</v>
+        <v>0.0480643278329369</v>
       </c>
       <c r="F12">
-        <v>4.329592031477091</v>
+        <v>4.582637475784765</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.419683597782978</v>
+        <v>2.754706332899175</v>
       </c>
       <c r="J12">
-        <v>0.06056576041238504</v>
+        <v>0.1205558026803812</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2856127188258455</v>
+        <v>0.3872359401600249</v>
       </c>
       <c r="M12">
-        <v>0.7476376341077398</v>
+        <v>0.5766154731497579</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.302570996739632</v>
+        <v>2.70478656505702</v>
       </c>
       <c r="C13">
-        <v>1.207438967819257</v>
+        <v>0.4365790015305038</v>
       </c>
       <c r="D13">
-        <v>0.03966300317901528</v>
+        <v>0.01459233311432229</v>
       </c>
       <c r="E13">
-        <v>0.02900734133934346</v>
+        <v>0.04804319770106691</v>
       </c>
       <c r="F13">
-        <v>4.312574946509073</v>
+        <v>4.579716949586441</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.411436722205451</v>
+        <v>2.753350563159543</v>
       </c>
       <c r="J13">
-        <v>0.06059223798708979</v>
+        <v>0.1205585540206324</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.284386348368713</v>
+        <v>0.3870648723604688</v>
       </c>
       <c r="M13">
-        <v>0.7435428197952092</v>
+        <v>0.5758239830789336</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.222387657445665</v>
+        <v>2.68825070877898</v>
       </c>
       <c r="C14">
-        <v>1.18356562005323</v>
+        <v>0.4310733686542676</v>
       </c>
       <c r="D14">
-        <v>0.03879503506293958</v>
+        <v>0.01437057705108202</v>
       </c>
       <c r="E14">
-        <v>0.02876563470951599</v>
+        <v>0.04797417705650453</v>
       </c>
       <c r="F14">
-        <v>4.257391204092983</v>
+        <v>4.570242123348493</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.384713515196097</v>
+        <v>2.74895659073357</v>
       </c>
       <c r="J14">
-        <v>0.06067878741914212</v>
+        <v>0.1205675519791072</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2804035214603289</v>
+        <v>0.3865112561201443</v>
       </c>
       <c r="M14">
-        <v>0.730233624004704</v>
+        <v>0.573250717679457</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.173465576641661</v>
+        <v>2.67815197623446</v>
       </c>
       <c r="C15">
-        <v>1.169004708415287</v>
+        <v>0.4277053952946517</v>
       </c>
       <c r="D15">
-        <v>0.03826748424383908</v>
+        <v>0.01423474748354892</v>
       </c>
       <c r="E15">
-        <v>0.02861829143634065</v>
+        <v>0.04793181463195939</v>
       </c>
       <c r="F15">
-        <v>4.223825384590214</v>
+        <v>4.564476633811466</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.36847428878383</v>
+        <v>2.746286257819804</v>
       </c>
       <c r="J15">
-        <v>0.06073195412143217</v>
+        <v>0.120573082835854</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2779764786644421</v>
+        <v>0.3861754340229027</v>
       </c>
       <c r="M15">
-        <v>0.7221151439432987</v>
+        <v>0.5716806311213674</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.895898225050303</v>
+        <v>2.620739149364283</v>
       </c>
       <c r="C16">
-        <v>1.086457684808806</v>
+        <v>0.4084717483326017</v>
       </c>
       <c r="D16">
-        <v>0.03530326811293349</v>
+        <v>0.01345635014592261</v>
       </c>
       <c r="E16">
-        <v>0.02778396995698618</v>
+        <v>0.04768773605482135</v>
       </c>
       <c r="F16">
-        <v>4.034910693331199</v>
+        <v>4.532019805758409</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.277303848782353</v>
+        <v>2.731306285836823</v>
       </c>
       <c r="J16">
-        <v>0.06103892311804593</v>
+        <v>0.1206050726098349</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2642514134770408</v>
+        <v>0.3843013207995654</v>
       </c>
       <c r="M16">
-        <v>0.6760813017473595</v>
+        <v>0.562776771514983</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.727933503144811</v>
+        <v>2.585927508899374</v>
       </c>
       <c r="C17">
-        <v>1.036557283326147</v>
+        <v>0.3967317730724744</v>
       </c>
       <c r="D17">
-        <v>0.03353336223845815</v>
+        <v>0.01297876258028197</v>
       </c>
       <c r="E17">
-        <v>0.02728025535543122</v>
+        <v>0.04753681666201448</v>
       </c>
       <c r="F17">
-        <v>3.921901600201693</v>
+        <v>4.51262724117268</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.222961761379324</v>
+        <v>2.722403564886761</v>
       </c>
       <c r="J17">
-        <v>0.06122923625320897</v>
+        <v>0.1206249582103069</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2559857148419553</v>
+        <v>0.3831965561837194</v>
       </c>
       <c r="M17">
-        <v>0.6482491901359211</v>
+        <v>0.5573981062947908</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.632110285095223</v>
+        <v>2.566055089040503</v>
       </c>
       <c r="C18">
-        <v>1.008105180254859</v>
+        <v>0.3900008627710463</v>
       </c>
       <c r="D18">
-        <v>0.03253167184813321</v>
+        <v>0.01270402106481328</v>
       </c>
       <c r="E18">
-        <v>0.02699319701518998</v>
+        <v>0.04744957226350888</v>
       </c>
       <c r="F18">
-        <v>3.857892417093268</v>
+        <v>4.501663180193304</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.192252069237227</v>
+        <v>2.717388082092967</v>
       </c>
       <c r="J18">
-        <v>0.06133941622678818</v>
+        <v>0.1206364909647792</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2512846137629197</v>
+        <v>0.3825776483511873</v>
       </c>
       <c r="M18">
-        <v>0.6323799636887202</v>
+        <v>0.5543351425186245</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.599795280048909</v>
+        <v>2.55935243776662</v>
       </c>
       <c r="C19">
-        <v>0.998512573275093</v>
+        <v>0.3877255892724065</v>
       </c>
       <c r="D19">
-        <v>0.03219518104386765</v>
+        <v>0.01261098841030162</v>
       </c>
       <c r="E19">
-        <v>0.02689643325590652</v>
+        <v>0.04741995693376477</v>
       </c>
       <c r="F19">
-        <v>3.836383898231389</v>
+        <v>4.497983521173126</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.181944786744779</v>
+        <v>2.715707948592907</v>
       </c>
       <c r="J19">
-        <v>0.0613768429109427</v>
+        <v>0.1206404120124791</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2497017021379975</v>
+        <v>0.3823709354281988</v>
       </c>
       <c r="M19">
-        <v>0.6270298134779111</v>
+        <v>0.5533033481179217</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.74573091588843</v>
+        <v>2.589617708472758</v>
       </c>
       <c r="C20">
-        <v>1.041842977268686</v>
+        <v>0.3979792730550002</v>
       </c>
       <c r="D20">
-        <v>0.03372005033696013</v>
+        <v>0.01302960684514431</v>
       </c>
       <c r="E20">
-        <v>0.02733359395904422</v>
+        <v>0.04755292769052044</v>
       </c>
       <c r="F20">
-        <v>3.933827576120905</v>
+        <v>4.514671932615812</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.228689206358837</v>
+        <v>2.723340386696393</v>
       </c>
       <c r="J20">
-        <v>0.06120890253706746</v>
+        <v>0.1206228314955173</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2568600385522473</v>
+        <v>0.3833124503026539</v>
       </c>
       <c r="M20">
-        <v>0.6511973351390949</v>
+        <v>0.5579674966761061</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.245898916334227</v>
+        <v>2.693101447044171</v>
       </c>
       <c r="C21">
-        <v>1.190564695404078</v>
+        <v>0.4326895916016156</v>
       </c>
       <c r="D21">
-        <v>0.03904911315012782</v>
+        <v>0.01443571155672885</v>
       </c>
       <c r="E21">
-        <v>0.02883648000601546</v>
+        <v>0.04799446784389882</v>
       </c>
       <c r="F21">
-        <v>4.273550426720846</v>
+        <v>4.573017163112809</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.392535544926645</v>
+        <v>2.750242807345728</v>
       </c>
       <c r="J21">
-        <v>0.06065333381433624</v>
+        <v>0.1205649050244548</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2815707357162864</v>
+        <v>0.3866731823165992</v>
       </c>
       <c r="M21">
-        <v>0.7341357473434158</v>
+        <v>0.5740052741489379</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.581226355509671</v>
+        <v>2.762074601580935</v>
       </c>
       <c r="C22">
-        <v>1.290484948237633</v>
+        <v>0.4555706570091047</v>
       </c>
       <c r="D22">
-        <v>0.04271145956826672</v>
+        <v>0.01535473282848443</v>
       </c>
       <c r="E22">
-        <v>0.02984955942319178</v>
+        <v>0.04827921174054506</v>
       </c>
       <c r="F22">
-        <v>4.505942746207722</v>
+        <v>4.612853542821284</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.505312689555893</v>
+        <v>2.768768637299601</v>
       </c>
       <c r="J22">
-        <v>0.06029702258240066</v>
+        <v>0.1205279105167905</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2982726838731935</v>
+        <v>0.389016610281729</v>
       </c>
       <c r="M22">
-        <v>0.7898228599155601</v>
+        <v>0.5847604620902587</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.401407905891006</v>
+        <v>2.72513956507845</v>
       </c>
       <c r="C23">
-        <v>1.236880142647749</v>
+        <v>0.4433405131271115</v>
       </c>
       <c r="D23">
-        <v>0.04073856054179714</v>
+        <v>0.01486420698552848</v>
       </c>
       <c r="E23">
-        <v>0.02930565788954897</v>
+        <v>0.04812758464716271</v>
       </c>
       <c r="F23">
-        <v>4.380881405425924</v>
+        <v>4.591435569027482</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.444556956926718</v>
+        <v>2.758794358560621</v>
       </c>
       <c r="J23">
-        <v>0.06048654923164332</v>
+        <v>0.1205475753115248</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2893038762422293</v>
+        <v>0.3877524351303379</v>
       </c>
       <c r="M23">
-        <v>0.7599532023687843</v>
+        <v>0.5789951740951196</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.737682409839408</v>
+        <v>2.587948929285574</v>
       </c>
       <c r="C24">
-        <v>1.039452584296953</v>
+        <v>0.3974152205465771</v>
       </c>
       <c r="D24">
-        <v>0.03363559963153051</v>
+        <v>0.01300662068720726</v>
       </c>
       <c r="E24">
-        <v>0.02730947175830689</v>
+        <v>0.04754564538699046</v>
       </c>
       <c r="F24">
-        <v>3.928432864618031</v>
+        <v>4.513746951569118</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.22609817924382</v>
+        <v>2.722916529407513</v>
       </c>
       <c r="J24">
-        <v>0.06121809302702852</v>
+        <v>0.1206237926710814</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2564645989122027</v>
+        <v>0.3832600039980747</v>
       </c>
       <c r="M24">
-        <v>0.6498640707489756</v>
+        <v>0.5577099840156237</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.051167007876131</v>
+        <v>2.445711987294203</v>
       </c>
       <c r="C25">
-        <v>0.8358132743247495</v>
+        <v>0.3487015396797517</v>
       </c>
       <c r="D25">
-        <v>0.02658348453954318</v>
+        <v>0.01100088725998205</v>
       </c>
       <c r="E25">
-        <v>0.02525527063848809</v>
+        <v>0.04690107256271414</v>
       </c>
       <c r="F25">
-        <v>3.477607025457189</v>
+        <v>4.437204897777946</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.010991026073015</v>
+        <v>2.688231168493871</v>
       </c>
       <c r="J25">
-        <v>0.06203447433223785</v>
+        <v>0.1207096310575482</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2230385551006577</v>
+        <v>0.3790459967361386</v>
       </c>
       <c r="M25">
-        <v>0.5363275898956203</v>
+        <v>0.5359241212781001</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_99/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.345887016753807</v>
+        <v>2.5644640259884</v>
       </c>
       <c r="C2">
-        <v>0.3135156155690311</v>
+        <v>0.6916348405090673</v>
       </c>
       <c r="D2">
-        <v>0.009519520851597463</v>
+        <v>0.02176494598622014</v>
       </c>
       <c r="E2">
-        <v>0.04641141514002722</v>
+        <v>0.02379684873169374</v>
       </c>
       <c r="F2">
-        <v>4.387006073177275</v>
+        <v>3.170720908663625</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.666097054353415</v>
+        <v>1.86654138811798</v>
       </c>
       <c r="J2">
-        <v>0.1207758743605365</v>
+        <v>0.06265769147631506</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.376486380045769</v>
+        <v>0.199785232390127</v>
       </c>
       <c r="M2">
-        <v>0.5208874751192241</v>
+        <v>0.4561108599901118</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.281277830105239</v>
+        <v>2.243588273982766</v>
       </c>
       <c r="C3">
-        <v>0.2900822958447122</v>
+        <v>0.5965733304899175</v>
       </c>
       <c r="D3">
-        <v>0.008511352982370823</v>
+        <v>0.01867046020236174</v>
       </c>
       <c r="E3">
-        <v>0.0460698980494314</v>
+        <v>0.02282947883626285</v>
       </c>
       <c r="F3">
-        <v>4.356787725242654</v>
+        <v>2.975437059238402</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.653196933476536</v>
+        <v>1.775763007991429</v>
       </c>
       <c r="J3">
-        <v>0.1208226258829952</v>
+        <v>0.06309339975702866</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3750905753882847</v>
+        <v>0.1847220013295399</v>
       </c>
       <c r="M3">
-        <v>0.5113213601050646</v>
+        <v>0.4033911643097312</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.243105082430418</v>
+        <v>2.050204833925534</v>
       </c>
       <c r="C4">
-        <v>0.2758938340196266</v>
+        <v>0.5392418205339311</v>
       </c>
       <c r="D4">
-        <v>0.007889797134531307</v>
+        <v>0.01683715682015929</v>
       </c>
       <c r="E4">
-        <v>0.04585534650250533</v>
+        <v>0.02224229576779546</v>
       </c>
       <c r="F4">
-        <v>4.340096582800356</v>
+        <v>2.860947372451136</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.646304947745122</v>
+        <v>1.723079962235403</v>
       </c>
       <c r="J4">
-        <v>0.120852234565715</v>
+        <v>0.06336740451302392</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3744008067487812</v>
+        <v>0.1757727149688151</v>
       </c>
       <c r="M4">
-        <v>0.5057553019091898</v>
+        <v>0.3716985899992125</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.227925915643539</v>
+        <v>1.97220850559853</v>
       </c>
       <c r="C5">
-        <v>0.2701617096825828</v>
+        <v>0.5161033025993618</v>
       </c>
       <c r="D5">
-        <v>0.007635807815915996</v>
+        <v>0.01610448623064897</v>
       </c>
       <c r="E5">
-        <v>0.04576668139388218</v>
+        <v>0.02200424540665491</v>
       </c>
       <c r="F5">
-        <v>4.333761774287098</v>
+        <v>2.815539497887244</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.643754160013529</v>
+        <v>1.702318046643256</v>
       </c>
       <c r="J5">
-        <v>0.1208645252952696</v>
+        <v>0.06348067906350807</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.374161819900003</v>
+        <v>0.1721953065551673</v>
       </c>
       <c r="M5">
-        <v>0.5035644518145546</v>
+        <v>0.3589361587012334</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.225428168320605</v>
+        <v>1.959303229297575</v>
       </c>
       <c r="C6">
-        <v>0.2692128896897543</v>
+        <v>0.512273733003866</v>
       </c>
       <c r="D6">
-        <v>0.00759358896642226</v>
+        <v>0.01598363242850098</v>
       </c>
       <c r="E6">
-        <v>0.04575188376765116</v>
+        <v>0.02196477867890234</v>
       </c>
       <c r="F6">
-        <v>4.332738043959196</v>
+        <v>2.8080717440955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.643346144090089</v>
+        <v>1.698911536075599</v>
       </c>
       <c r="J6">
-        <v>0.1208665796854933</v>
+        <v>0.06349958544066614</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3741246802495013</v>
+        <v>0.1716053166558709</v>
       </c>
       <c r="M6">
-        <v>0.5032053361788869</v>
+        <v>0.3568256878307352</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.242898846328217</v>
+        <v>2.049149805134789</v>
       </c>
       <c r="C7">
-        <v>0.2758163275451579</v>
+        <v>0.5389289027533266</v>
       </c>
       <c r="D7">
-        <v>0.007886374661932649</v>
+        <v>0.01682722036929363</v>
       </c>
       <c r="E7">
-        <v>0.04585415574393004</v>
+        <v>0.02223908094582505</v>
       </c>
       <c r="F7">
-        <v>4.340009260652707</v>
+        <v>2.860330078630781</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.646269504556912</v>
+        <v>1.722797175343061</v>
       </c>
       <c r="J7">
-        <v>0.1208523994145767</v>
+        <v>0.0633689256483585</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3743974131746768</v>
+        <v>0.1757241947538333</v>
       </c>
       <c r="M7">
-        <v>0.505725442065291</v>
+        <v>0.3715258761776496</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.323298893214599</v>
+        <v>2.453005216276892</v>
       </c>
       <c r="C8">
-        <v>0.3053940953905396</v>
+        <v>0.6586197020660336</v>
       </c>
       <c r="D8">
-        <v>0.009172393257607325</v>
+        <v>0.02068262702934831</v>
       </c>
       <c r="E8">
-        <v>0.04629466124676007</v>
+        <v>0.02346159036351381</v>
       </c>
       <c r="F8">
-        <v>4.376199182011078</v>
+        <v>3.102191341496649</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.661435006594388</v>
+        <v>1.834568305248524</v>
       </c>
       <c r="J8">
-        <v>0.1207918055790747</v>
+        <v>0.06280657007286661</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3759704138315385</v>
+        <v>0.1945255737488765</v>
       </c>
       <c r="M8">
-        <v>0.5175252480543193</v>
+        <v>0.4377812606248952</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.492860760771862</v>
+        <v>3.279104739247828</v>
       </c>
       <c r="C9">
-        <v>0.3650031772401405</v>
+        <v>0.9033770518500148</v>
       </c>
       <c r="D9">
-        <v>0.01167704309545314</v>
+        <v>0.02889179590113855</v>
       </c>
       <c r="E9">
-        <v>0.04712050048044603</v>
+        <v>0.02593695532667795</v>
       </c>
       <c r="F9">
-        <v>4.462026099751483</v>
+        <v>3.625150250646044</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.699382968110882</v>
+        <v>2.081057190501213</v>
       </c>
       <c r="J9">
-        <v>0.120680238682795</v>
+        <v>0.06175596489325752</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.380381118419379</v>
+        <v>0.234065192980097</v>
       </c>
       <c r="M9">
-        <v>0.5431064292208845</v>
+        <v>0.5739799747415688</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.624731774308827</v>
+        <v>3.915175212475617</v>
       </c>
       <c r="C10">
-        <v>0.4098143013108029</v>
+        <v>1.092187040307408</v>
       </c>
       <c r="D10">
-        <v>0.01351084156436144</v>
+        <v>0.03550754515666199</v>
       </c>
       <c r="E10">
-        <v>0.04770489773864117</v>
+        <v>0.02784183081973701</v>
       </c>
       <c r="F10">
-        <v>4.534258423257029</v>
+        <v>4.047944960812515</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.732336418376107</v>
+        <v>2.283581338270977</v>
       </c>
       <c r="J10">
-        <v>0.1206028164658175</v>
+        <v>0.06101730540322814</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3844296206008551</v>
+        <v>0.2652020357410123</v>
       </c>
       <c r="M10">
-        <v>0.5633946753979444</v>
+        <v>0.6792767584415813</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.686317745346685</v>
+        <v>4.213020979690896</v>
       </c>
       <c r="C11">
-        <v>0.4304290492365794</v>
+        <v>1.180777487801549</v>
       </c>
       <c r="D11">
-        <v>0.01434460217723199</v>
+        <v>0.03869391110894327</v>
       </c>
       <c r="E11">
-        <v>0.04796608113073919</v>
+        <v>0.02873741681649467</v>
       </c>
       <c r="F11">
-        <v>4.569137325633534</v>
+        <v>4.250958555673407</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.748444690373006</v>
+        <v>2.38160047733021</v>
       </c>
       <c r="J11">
-        <v>0.1205686085019502</v>
+        <v>0.06068894550610504</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3864468418668565</v>
+        <v>0.2799386597170894</v>
       </c>
       <c r="M11">
-        <v>0.5729501065158047</v>
+        <v>0.7286791419491649</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.709868976687403</v>
+        <v>4.327236420971587</v>
       </c>
       <c r="C12">
-        <v>0.4382689693157431</v>
+        <v>1.214784748471743</v>
       </c>
       <c r="D12">
-        <v>0.01466033250911636</v>
+        <v>0.03993082940177572</v>
       </c>
       <c r="E12">
-        <v>0.0480643278329369</v>
+        <v>0.02908174803945407</v>
       </c>
       <c r="F12">
-        <v>4.582637475784765</v>
+        <v>4.329592031477063</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.754706332899175</v>
+        <v>2.419683597782992</v>
       </c>
       <c r="J12">
-        <v>0.1205558026803812</v>
+        <v>0.06056576041212858</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3872359401600249</v>
+        <v>0.2856127188258739</v>
       </c>
       <c r="M12">
-        <v>0.5766154731497579</v>
+        <v>0.7476376341077469</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.70478656505702</v>
+        <v>4.302570996739519</v>
       </c>
       <c r="C13">
-        <v>0.4365790015305038</v>
+        <v>1.207438967819257</v>
       </c>
       <c r="D13">
-        <v>0.01459233311432229</v>
+        <v>0.03966300317861027</v>
       </c>
       <c r="E13">
-        <v>0.04804319770106691</v>
+        <v>0.02900734133936922</v>
       </c>
       <c r="F13">
-        <v>4.579716949586441</v>
+        <v>4.312574946509102</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.753350563159543</v>
+        <v>2.411436722205451</v>
       </c>
       <c r="J13">
-        <v>0.1205585540206324</v>
+        <v>0.06059223798717017</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3870648723604688</v>
+        <v>0.2843863483684999</v>
       </c>
       <c r="M13">
-        <v>0.5758239830789336</v>
+        <v>0.743542819795195</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.68825070877898</v>
+        <v>4.222387657445836</v>
       </c>
       <c r="C14">
-        <v>0.4310733686542676</v>
+        <v>1.183565620053287</v>
       </c>
       <c r="D14">
-        <v>0.01437057705108202</v>
+        <v>0.03879503506329485</v>
       </c>
       <c r="E14">
-        <v>0.04797417705650453</v>
+        <v>0.02876563470953819</v>
       </c>
       <c r="F14">
-        <v>4.570242123348493</v>
+        <v>4.257391204092983</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.74895659073357</v>
+        <v>2.384713515196097</v>
       </c>
       <c r="J14">
-        <v>0.1205675519791072</v>
+        <v>0.0606787874191701</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3865112561201443</v>
+        <v>0.2804035214603999</v>
       </c>
       <c r="M14">
-        <v>0.573250717679457</v>
+        <v>0.7302336240047183</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.67815197623446</v>
+        <v>4.173465576641945</v>
       </c>
       <c r="C15">
-        <v>0.4277053952946517</v>
+        <v>1.169004708415514</v>
       </c>
       <c r="D15">
-        <v>0.01423474748354892</v>
+        <v>0.03826748424397408</v>
       </c>
       <c r="E15">
-        <v>0.04793181463195939</v>
+        <v>0.02861829143637706</v>
       </c>
       <c r="F15">
-        <v>4.564476633811466</v>
+        <v>4.223825384590214</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.746286257819804</v>
+        <v>2.36847428878383</v>
       </c>
       <c r="J15">
-        <v>0.120573082835854</v>
+        <v>0.06073195412142485</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3861754340229027</v>
+        <v>0.2779764786644279</v>
       </c>
       <c r="M15">
-        <v>0.5716806311213674</v>
+        <v>0.7221151439433129</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.620739149364283</v>
+        <v>3.895898225050473</v>
       </c>
       <c r="C16">
-        <v>0.4084717483326017</v>
+        <v>1.086457684808579</v>
       </c>
       <c r="D16">
-        <v>0.01345635014592261</v>
+        <v>0.03530326811302587</v>
       </c>
       <c r="E16">
-        <v>0.04768773605482135</v>
+        <v>0.02778396995700216</v>
       </c>
       <c r="F16">
-        <v>4.532019805758409</v>
+        <v>4.03491069333117</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.731306285836823</v>
+        <v>2.277303848782324</v>
       </c>
       <c r="J16">
-        <v>0.1206050726098349</v>
+        <v>0.06103892311799375</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3843013207995654</v>
+        <v>0.264251413477183</v>
       </c>
       <c r="M16">
-        <v>0.562776771514983</v>
+        <v>0.6760813017473666</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.585927508899374</v>
+        <v>3.727933503144982</v>
       </c>
       <c r="C17">
-        <v>0.3967317730724744</v>
+        <v>1.036557283326147</v>
       </c>
       <c r="D17">
-        <v>0.01297876258028197</v>
+        <v>0.03353336223831604</v>
       </c>
       <c r="E17">
-        <v>0.04753681666201448</v>
+        <v>0.02728025535543654</v>
       </c>
       <c r="F17">
-        <v>4.51262724117268</v>
+        <v>3.921901600201664</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.722403564886761</v>
+        <v>2.222961761379352</v>
       </c>
       <c r="J17">
-        <v>0.1206249582103069</v>
+        <v>0.06122923625319521</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3831965561837194</v>
+        <v>0.2559857148418985</v>
       </c>
       <c r="M17">
-        <v>0.5573981062947908</v>
+        <v>0.6482491901359069</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.566055089040503</v>
+        <v>3.632110285095109</v>
       </c>
       <c r="C18">
-        <v>0.3900008627710463</v>
+        <v>1.008105180254631</v>
       </c>
       <c r="D18">
-        <v>0.01270402106481328</v>
+        <v>0.03253167184764294</v>
       </c>
       <c r="E18">
-        <v>0.04744957226350888</v>
+        <v>0.02699319701514735</v>
       </c>
       <c r="F18">
-        <v>4.501663180193304</v>
+        <v>3.857892417093211</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.717388082092967</v>
+        <v>2.192252069237213</v>
       </c>
       <c r="J18">
-        <v>0.1206364909647792</v>
+        <v>0.06133941622687633</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3825776483511873</v>
+        <v>0.251284613762877</v>
       </c>
       <c r="M18">
-        <v>0.5543351425186245</v>
+        <v>0.632379963688706</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.55935243776662</v>
+        <v>3.599795280048966</v>
       </c>
       <c r="C19">
-        <v>0.3877255892724065</v>
+        <v>0.9985125732753204</v>
       </c>
       <c r="D19">
-        <v>0.01261098841030162</v>
+        <v>0.03219518104388897</v>
       </c>
       <c r="E19">
-        <v>0.04741995693376477</v>
+        <v>0.02689643325593583</v>
       </c>
       <c r="F19">
-        <v>4.497983521173126</v>
+        <v>3.836383898231389</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.715707948592907</v>
+        <v>2.181944786744765</v>
       </c>
       <c r="J19">
-        <v>0.1206404120124791</v>
+        <v>0.06137684291092071</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3823709354281988</v>
+        <v>0.2497017021380259</v>
       </c>
       <c r="M19">
-        <v>0.5533033481179217</v>
+        <v>0.627029813477904</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.589617708472758</v>
+        <v>3.745730915888487</v>
       </c>
       <c r="C20">
-        <v>0.3979792730550002</v>
+        <v>1.041842977268686</v>
       </c>
       <c r="D20">
-        <v>0.01302960684514431</v>
+        <v>0.0337200503369246</v>
       </c>
       <c r="E20">
-        <v>0.04755292769052044</v>
+        <v>0.02733359395900514</v>
       </c>
       <c r="F20">
-        <v>4.514671932615812</v>
+        <v>3.933827576120848</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.723340386696393</v>
+        <v>2.228689206358823</v>
       </c>
       <c r="J20">
-        <v>0.1206228314955173</v>
+        <v>0.06120890253721023</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3833124503026539</v>
+        <v>0.2568600385522473</v>
       </c>
       <c r="M20">
-        <v>0.5579674966761061</v>
+        <v>0.6511973351390665</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.693101447044171</v>
+        <v>4.245898916334284</v>
       </c>
       <c r="C21">
-        <v>0.4326895916016156</v>
+        <v>1.190564695404532</v>
       </c>
       <c r="D21">
-        <v>0.01443571155672885</v>
+        <v>0.03904911315002124</v>
       </c>
       <c r="E21">
-        <v>0.04799446784389882</v>
+        <v>0.02883648000603589</v>
       </c>
       <c r="F21">
-        <v>4.573017163112809</v>
+        <v>4.273550426720874</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.750242807345728</v>
+        <v>2.392535544926673</v>
       </c>
       <c r="J21">
-        <v>0.1205649050244548</v>
+        <v>0.06065333381409399</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3866731823165992</v>
+        <v>0.2815707357161727</v>
       </c>
       <c r="M21">
-        <v>0.5740052741489379</v>
+        <v>0.7341357473434229</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.762074601580935</v>
+        <v>4.581226355509841</v>
       </c>
       <c r="C22">
-        <v>0.4555706570091047</v>
+        <v>1.29048494823769</v>
       </c>
       <c r="D22">
-        <v>0.01535473282848443</v>
+        <v>0.04271145956813172</v>
       </c>
       <c r="E22">
-        <v>0.04827921174054506</v>
+        <v>0.02984955942320511</v>
       </c>
       <c r="F22">
-        <v>4.612853542821284</v>
+        <v>4.505942746207694</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.768768637299601</v>
+        <v>2.505312689555879</v>
       </c>
       <c r="J22">
-        <v>0.1205279105167905</v>
+        <v>0.0602970225824242</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.389016610281729</v>
+        <v>0.2982726838731082</v>
       </c>
       <c r="M22">
-        <v>0.5847604620902587</v>
+        <v>0.789822859915553</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.72513956507845</v>
+        <v>4.401407905890949</v>
       </c>
       <c r="C23">
-        <v>0.4433405131271115</v>
+        <v>1.236880142647408</v>
       </c>
       <c r="D23">
-        <v>0.01486420698552848</v>
+        <v>0.04073856054173319</v>
       </c>
       <c r="E23">
-        <v>0.04812758464716271</v>
+        <v>0.02930565788955608</v>
       </c>
       <c r="F23">
-        <v>4.591435569027482</v>
+        <v>4.380881405425953</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.758794358560621</v>
+        <v>2.444556956926704</v>
       </c>
       <c r="J23">
-        <v>0.1205475753115248</v>
+        <v>0.06048654923175434</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3877524351303379</v>
+        <v>0.2893038762421867</v>
       </c>
       <c r="M23">
-        <v>0.5789951740951196</v>
+        <v>0.7599532023687914</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.587948929285574</v>
+        <v>3.737682409839522</v>
       </c>
       <c r="C24">
-        <v>0.3974152205465771</v>
+        <v>1.03945258429718</v>
       </c>
       <c r="D24">
-        <v>0.01300662068720726</v>
+        <v>0.03363559963160867</v>
       </c>
       <c r="E24">
-        <v>0.04754564538699046</v>
+        <v>0.02730947175835929</v>
       </c>
       <c r="F24">
-        <v>4.513746951569118</v>
+        <v>3.928432864618031</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.722916529407513</v>
+        <v>2.22609817924382</v>
       </c>
       <c r="J24">
-        <v>0.1206237926710814</v>
+        <v>0.0612180930269437</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3832600039980747</v>
+        <v>0.2564645989123449</v>
       </c>
       <c r="M24">
-        <v>0.5577099840156237</v>
+        <v>0.6498640707489827</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.445711987294203</v>
+        <v>3.051167007876131</v>
       </c>
       <c r="C25">
-        <v>0.3487015396797517</v>
+        <v>0.8358132743246927</v>
       </c>
       <c r="D25">
-        <v>0.01100088725998205</v>
+        <v>0.02658348453936554</v>
       </c>
       <c r="E25">
-        <v>0.04690107256271414</v>
+        <v>0.02525527063846678</v>
       </c>
       <c r="F25">
-        <v>4.437204897777946</v>
+        <v>3.477607025457218</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.688231168493871</v>
+        <v>2.010991026073015</v>
       </c>
       <c r="J25">
-        <v>0.1207096310575482</v>
+        <v>0.06203447433219167</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3790459967361386</v>
+        <v>0.223038555100743</v>
       </c>
       <c r="M25">
-        <v>0.5359241212781001</v>
+        <v>0.5363275898956275</v>
       </c>
       <c r="N25">
         <v>0</v>
